--- a/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>TRIN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,108 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E8" s="3">
         <v>15300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26100</v>
       </c>
-      <c r="G8" s="3">
-        <v>10900</v>
-      </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E9" s="3">
         <v>4300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,25 +776,28 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E10" s="3">
         <v>11000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17600</v>
       </c>
-      <c r="G10" s="3">
-        <v>6700</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+      <c r="H10" s="3">
+        <v>8000</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,25 +886,28 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-500</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>15600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
+      <c r="H14" s="3">
+        <v>15600</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -898,8 +918,11 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +963,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>22100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E18" s="3">
         <v>5800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-11200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,66 +1041,73 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E20" s="3">
         <v>3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-25000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-23800</v>
-      </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-25100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E21" s="3">
         <v>9700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>12300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,37 +1135,43 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E23" s="3">
         <v>9700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-28200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-35100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1231,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E26" s="3">
         <v>9700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-28200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-35100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E27" s="3">
         <v>9700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-28200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-35100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1423,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>25000</v>
       </c>
-      <c r="G32" s="3">
-        <v>23800</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>25100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E33" s="3">
         <v>9700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-28200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-35100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1519,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E35" s="3">
         <v>9700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-28200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-35100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,26 +1618,27 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E41" s="3">
         <v>44700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>21800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>62600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,16 +1680,19 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3500</v>
-      </c>
-      <c r="E43" s="3">
-        <v>3200</v>
       </c>
       <c r="F43" s="3">
         <v>3200</v>
@@ -1607,8 +1700,8 @@
       <c r="G43" s="3">
         <v>3200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>3200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,26 +1744,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,8 +1776,11 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1706,26 +1808,29 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>535700</v>
+      </c>
+      <c r="E47" s="3">
         <v>493700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>425500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>418800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>398600</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,8 +1840,11 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1744,7 +1852,7 @@
         <v>300</v>
       </c>
       <c r="E48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>500</v>
@@ -1752,8 +1860,8 @@
       <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1764,8 +1872,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,26 +1968,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E52" s="3">
         <v>16400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16900</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2000,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,26 +2032,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E54" s="3">
         <v>559700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>482400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>461300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>482200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,26 +2094,27 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>7300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,8 +2124,11 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,25 +2156,28 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>500</v>
       </c>
       <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2051,8 +2188,11 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2080,26 +2220,29 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>211100</v>
+      </c>
+      <c r="E61" s="3">
         <v>299700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>232600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>222100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>246400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2109,8 +2252,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2138,8 +2284,11 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,26 +2380,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>232400</v>
+      </c>
+      <c r="E66" s="3">
         <v>321000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>245100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>232700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>257600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,26 +2554,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-32700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-35600</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,26 +2682,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>361600</v>
+      </c>
+      <c r="E76" s="3">
         <v>238700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>237300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>228600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>224600</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2746,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E81" s="3">
         <v>9700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-28200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-35100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2650,20 +2849,23 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3021,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-54300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,25 +3069,26 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3163,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-91800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-91700</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,13 +3211,14 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3337,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E100" s="3">
         <v>63000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>142300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>170100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3401,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E102" s="3">
         <v>8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>38400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>79500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>TRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,110 +665,117 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E8" s="3">
         <v>17300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13500</v>
       </c>
-      <c r="G8" s="3">
-        <v>26100</v>
-      </c>
       <c r="H8" s="3">
+        <v>13800</v>
+      </c>
+      <c r="I8" s="3">
         <v>12200</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E9" s="3">
         <v>4600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8500</v>
       </c>
       <c r="H9" s="3">
         <v>4200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>4200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -779,29 +786,32 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E10" s="3">
         <v>12700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9600</v>
       </c>
-      <c r="G10" s="3">
-        <v>17600</v>
-      </c>
       <c r="H10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I10" s="3">
         <v>8000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,8 +906,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,20 +918,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>15600</v>
       </c>
-      <c r="H14" s="3">
-        <v>15600</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -921,8 +941,11 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,72 +990,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E17" s="3">
         <v>10100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8000</v>
       </c>
-      <c r="G17" s="3">
-        <v>29300</v>
-      </c>
       <c r="H17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I17" s="3">
         <v>22100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
+      <c r="K17" s="3">
+        <v>0</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E18" s="3">
         <v>7200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-3200</v>
-      </c>
       <c r="H18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-9900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
+      <c r="K18" s="3">
+        <v>0</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,72 +1075,79 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E20" s="3">
         <v>18100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-25000</v>
-      </c>
       <c r="H20" s="3">
+        <v>200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-25100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>25300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>12300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-28100</v>
-      </c>
       <c r="H21" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I21" s="3">
         <v>-35000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,40 +1178,46 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E23" s="3">
         <v>25300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-28200</v>
-      </c>
       <c r="H23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-35100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
+      <c r="K23" s="3">
+        <v>0</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,72 +1283,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E26" s="3">
         <v>25300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-28200</v>
-      </c>
       <c r="H26" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-35100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
+      <c r="K26" s="3">
+        <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E27" s="3">
         <v>25300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-28200</v>
-      </c>
       <c r="H27" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-35100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
+      <c r="K27" s="3">
+        <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,72 +1493,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6800</v>
       </c>
-      <c r="G32" s="3">
-        <v>25000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I32" s="3">
         <v>25100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E33" s="3">
         <v>25300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-28200</v>
-      </c>
       <c r="H33" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-35100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
+      <c r="K33" s="3">
+        <v>0</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,77 +1598,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E35" s="3">
         <v>25300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-28200</v>
-      </c>
       <c r="H35" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-35100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
+      <c r="K35" s="3">
+        <v>0</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,29 +1705,30 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E41" s="3">
         <v>36000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>21800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>62600</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,8 +1738,11 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1683,19 +1773,22 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>3200</v>
       </c>
       <c r="G43" s="3">
         <v>3200</v>
@@ -1703,8 +1796,8 @@
       <c r="H43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>3200</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1715,8 +1808,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1747,29 +1843,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,8 +1878,11 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1811,29 +1913,32 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>597700</v>
+      </c>
+      <c r="E47" s="3">
         <v>535700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>493700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>425500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>418800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>398600</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1843,19 +1948,22 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>300</v>
+        <v>2400</v>
       </c>
       <c r="E48" s="3">
         <v>300</v>
       </c>
       <c r="F48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>500</v>
@@ -1863,8 +1971,8 @@
       <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>500</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1875,8 +1983,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,8 +2088,11 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1980,20 +2100,20 @@
         <v>15300</v>
       </c>
       <c r="E52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="F52" s="3">
         <v>16400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16900</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2123,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,29 +2158,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>641400</v>
+      </c>
+      <c r="E54" s="3">
         <v>594000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>559700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>482400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>461300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>482200</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,29 +2225,30 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2258,11 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2159,28 +2293,31 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E59" s="3">
         <v>7700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>500</v>
       </c>
       <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="I59" s="3">
+        <v>500</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2191,8 +2328,11 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2223,29 +2363,32 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E61" s="3">
         <v>211100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>299700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>232600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>222100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>246400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2255,8 +2398,11 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2287,8 +2433,11 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,29 +2538,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>261700</v>
+      </c>
+      <c r="E66" s="3">
         <v>232400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>321000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>245100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>232700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>257600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,29 +2728,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-25200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-32700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,29 +2868,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>379700</v>
+      </c>
+      <c r="E76" s="3">
         <v>361600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>238700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>237300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>228600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>224600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,77 +2938,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E81" s="3">
         <v>25300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-28200</v>
-      </c>
       <c r="H81" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-35100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
+      <c r="K81" s="3">
+        <v>0</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,13 +3030,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2852,20 +3051,23 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,40 +3238,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-54300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-12100</v>
-      </c>
       <c r="H89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="I89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,28 +3290,29 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3102,8 +3323,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,40 +3393,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>-91800</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-91700</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,17 +3445,18 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3800</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,40 +3583,46 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E100" s="3">
         <v>10400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>63000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6000</v>
       </c>
-      <c r="G100" s="3">
-        <v>142300</v>
-      </c>
       <c r="H100" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="I100" s="3">
         <v>170100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3404,36 +3653,42 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14300</v>
       </c>
-      <c r="G102" s="3">
-        <v>38400</v>
-      </c>
       <c r="H102" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="I102" s="3">
         <v>79500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>TRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,127 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E8" s="3">
         <v>19500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>12200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="3">
         <v>4400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3900</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4200</v>
       </c>
       <c r="I9" s="3">
         <v>4200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
+      <c r="J9" s="3">
+        <v>4200</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -789,32 +796,35 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E10" s="3">
         <v>15100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>12700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>9600</v>
       </c>
       <c r="H10" s="3">
         <v>9600</v>
       </c>
       <c r="I10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J10" s="3">
         <v>8000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -921,20 +941,20 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>15600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -944,8 +964,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,78 +1017,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E17" s="3">
         <v>9400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9500</v>
       </c>
-      <c r="G17" s="3">
-        <v>8000</v>
-      </c>
       <c r="H17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I17" s="3">
         <v>7100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
+      <c r="L17" s="3">
+        <v>0</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E18" s="3">
         <v>10100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>7200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5800</v>
       </c>
-      <c r="G18" s="3">
-        <v>5500</v>
-      </c>
       <c r="H18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I18" s="3">
         <v>6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
+      <c r="L18" s="3">
+        <v>0</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,78 +1109,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E20" s="3">
         <v>14600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>18100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3900</v>
       </c>
-      <c r="G20" s="3">
-        <v>6800</v>
-      </c>
       <c r="H20" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-25100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>25300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>12300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,43 +1221,49 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E23" s="3">
         <v>24700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-35100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,78 +1335,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E26" s="3">
         <v>24700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>25300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-35100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E27" s="3">
         <v>24700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>25300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-35100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,78 +1563,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-14600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-18100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3900</v>
       </c>
-      <c r="G32" s="3">
-        <v>-6800</v>
-      </c>
       <c r="H32" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>25100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E33" s="3">
         <v>24700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>25300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-35100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,83 +1677,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E35" s="3">
         <v>24700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>25300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-35100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,32 +1792,33 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E41" s="3">
         <v>19100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>21800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>62600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,8 +1828,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1776,22 +1866,25 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E43" s="3">
         <v>4100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>3200</v>
       </c>
       <c r="H43" s="3">
         <v>3200</v>
@@ -1799,8 +1892,8 @@
       <c r="I43" s="3">
         <v>3200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>3200</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1811,8 +1904,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1846,32 +1942,35 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +1980,11 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1916,32 +2018,35 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>677200</v>
+      </c>
+      <c r="E47" s="3">
         <v>597700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>535700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>493700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>425500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>418800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>398600</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1951,22 +2056,25 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>300</v>
       </c>
       <c r="F48" s="3">
         <v>300</v>
       </c>
       <c r="G48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>500</v>
@@ -1974,8 +2082,8 @@
       <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>500</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1986,8 +2094,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,32 +2208,35 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>15300</v>
+        <v>15000</v>
       </c>
       <c r="E52" s="3">
         <v>15300</v>
       </c>
       <c r="F52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G52" s="3">
         <v>16400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2246,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,32 +2284,35 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>727400</v>
+      </c>
+      <c r="E54" s="3">
         <v>641400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>594000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>559700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>482400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>461300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>482200</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,32 +2356,33 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E57" s="3">
         <v>8200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>5100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2261,8 +2392,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2296,31 +2430,34 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16700</v>
+      </c>
+      <c r="E59" s="3">
         <v>16500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>500</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2331,8 +2468,11 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2366,32 +2506,35 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300400</v>
+      </c>
+      <c r="E61" s="3">
         <v>237000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>211100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>299700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>232600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>222100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>246400</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2401,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2436,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,32 +2696,35 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>328400</v>
+      </c>
+      <c r="E66" s="3">
         <v>261700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>232400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>321000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>245100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>232700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>257600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,32 +2902,35 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E72" s="3">
         <v>10300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-25200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-32700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35600</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,32 +3054,35 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>399000</v>
+      </c>
+      <c r="E76" s="3">
         <v>379700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>361600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>238700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>237300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>228600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>224600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,83 +3130,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E81" s="3">
         <v>24700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>25300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-35100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,16 +3229,17 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3054,20 +3253,23 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-35200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-54300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,8 +3511,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3300,22 +3521,22 @@
         <v>-300</v>
       </c>
       <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,8 +3623,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3405,34 +3635,37 @@
         <v>-300</v>
       </c>
       <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-91700</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,20 +3679,21 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3800</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E100" s="3">
         <v>18700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>63000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-27800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>170100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3656,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-41100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>79500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>TRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,136 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E8" s="3">
         <v>21800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E9" s="3">
         <v>4200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>4200</v>
       </c>
       <c r="J9" s="3">
         <v>4200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
+      <c r="K9" s="3">
+        <v>4200</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
@@ -799,35 +805,38 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E10" s="3">
         <v>17600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>15100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>12700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>11000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>9600</v>
       </c>
       <c r="I10" s="3">
         <v>9600</v>
       </c>
       <c r="J10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K10" s="3">
         <v>8000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +904,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,20 +963,20 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>15600</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -967,8 +986,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E17" s="3">
         <v>10700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>22100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>0</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E18" s="3">
         <v>11100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>0</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,46 +1142,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>44500</v>
+      </c>
+      <c r="E20" s="3">
         <v>16000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>14600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>18100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-25100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1159,35 +1195,38 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>25300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>6900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,46 +1263,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E23" s="3">
         <v>27200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>24700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-35100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E26" s="3">
         <v>27200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>25300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>9700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-35100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E27" s="3">
         <v>27200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>25300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>9700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-35100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,84 +1632,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-14600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-18100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>25100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E33" s="3">
         <v>27200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>25300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-35100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E35" s="3">
         <v>27200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>25300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-35100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,35 +1878,36 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E41" s="3">
         <v>25300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>19100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>21800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>62600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,25 +1958,28 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E43" s="3">
         <v>4500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3500</v>
-      </c>
-      <c r="H43" s="3">
-        <v>3200</v>
       </c>
       <c r="I43" s="3">
         <v>3200</v>
@@ -1895,8 +1987,8 @@
       <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
+      <c r="K43" s="3">
+        <v>3200</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
@@ -1907,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1945,35 +2040,38 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,8 +2081,11 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2021,35 +2122,38 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>873500</v>
+      </c>
+      <c r="E47" s="3">
         <v>677200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>597700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>535700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>493700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>425500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>418800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>398600</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2059,8 +2163,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2068,16 +2175,16 @@
         <v>2500</v>
       </c>
       <c r="E48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F48" s="3">
         <v>2400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>300</v>
       </c>
       <c r="G48" s="3">
         <v>300</v>
       </c>
       <c r="H48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>500</v>
@@ -2085,8 +2192,8 @@
       <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>500</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2097,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,35 +2327,38 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E52" s="3">
         <v>15000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>15300</v>
       </c>
       <c r="F52" s="3">
         <v>15300</v>
       </c>
       <c r="G52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H52" s="3">
         <v>16400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2249,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,35 +2409,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>937100</v>
+      </c>
+      <c r="E54" s="3">
         <v>727400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>641400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>594000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>559700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>482400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>461300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>482200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,35 +2486,36 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E57" s="3">
         <v>11400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>5100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2395,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2433,34 +2566,37 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E59" s="3">
         <v>16700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>500</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>500</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
@@ -2471,8 +2607,11 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2509,35 +2648,38 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>455300</v>
+      </c>
+      <c r="E61" s="3">
         <v>300400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>237000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>211100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>299700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>232600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>222100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>246400</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2547,8 +2689,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2730,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,35 +2853,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>490600</v>
+      </c>
+      <c r="E66" s="3">
         <v>328400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>261700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>232400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>321000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>245100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>232700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>257600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,35 +3075,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>77900</v>
+      </c>
+      <c r="E72" s="3">
         <v>28500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-25200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-32700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,35 +3239,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>446500</v>
+      </c>
+      <c r="E76" s="3">
         <v>399000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>379700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>361600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>238700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>237300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>228600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>224600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E81" s="3">
         <v>27200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>25300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-35100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3241,8 +3439,8 @@
       <c r="E83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -3256,20 +3454,23 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-137400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-49400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-19700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-54300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-13300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,34 +3731,35 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -3550,8 +3770,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-91700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,23 +3912,24 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-6800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-6300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3800</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3718,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4074,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>143800</v>
+      </c>
+      <c r="E100" s="3">
         <v>55600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>18700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>63000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-27800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>170100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E102" s="3">
         <v>5800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-41100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>79500</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>TRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,146 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>31800</v>
+      </c>
+      <c r="E8" s="3">
         <v>23600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E9" s="3">
         <v>8900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>4200</v>
       </c>
       <c r="K9" s="3">
         <v>4200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
+      <c r="L9" s="3">
+        <v>4200</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
@@ -808,38 +815,41 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E10" s="3">
         <v>14700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>12700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>11000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>9600</v>
       </c>
       <c r="J10" s="3">
         <v>9600</v>
       </c>
       <c r="K10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="L10" s="3">
         <v>8000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +859,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,8 +879,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,8 +921,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,13 +965,16 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -966,20 +986,20 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-500</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>15600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1053,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,90 +1070,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E17" s="3">
         <v>13000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>22100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>0</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E18" s="3">
         <v>10600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>0</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,54 +1176,58 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E20" s="3">
         <v>44500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>18100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-25100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-9100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1198,35 +1235,38 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>25300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>12300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>6900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-35000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,49 +1306,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E23" s="3">
         <v>55100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>27200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>24700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-35100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E26" s="3">
         <v>55100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>9700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-35100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E27" s="3">
         <v>55100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>9700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-35100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1702,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-44500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-18100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E33" s="3">
         <v>55100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>25300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>9700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-35100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E35" s="3">
         <v>55100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>25300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>9700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-35100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,38 +1965,39 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E41" s="3">
         <v>31700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>25300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>36000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,28 +2051,31 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E43" s="3">
         <v>5600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3200</v>
       </c>
       <c r="J43" s="3">
         <v>3200</v>
@@ -1990,8 +2083,8 @@
       <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
+      <c r="L43" s="3">
+        <v>3200</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,38 +2139,41 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,8 +2183,11 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2125,38 +2227,41 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>919300</v>
+      </c>
+      <c r="E47" s="3">
         <v>873500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>677200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>597700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>535700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>493700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>425500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>418800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>398600</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2166,28 +2271,31 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E48" s="3">
         <v>2500</v>
       </c>
       <c r="F48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G48" s="3">
         <v>2400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>300</v>
       </c>
       <c r="H48" s="3">
         <v>300</v>
       </c>
       <c r="I48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>500</v>
@@ -2195,8 +2303,8 @@
       <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>500</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2207,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,38 +2447,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E52" s="3">
         <v>17400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>15300</v>
       </c>
       <c r="G52" s="3">
         <v>15300</v>
       </c>
       <c r="H52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="I52" s="3">
         <v>16400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,38 +2535,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>965900</v>
+      </c>
+      <c r="E54" s="3">
         <v>937100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>727400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>641400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>594000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>559700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>482400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>461300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>482200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,38 +2617,39 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E57" s="3">
         <v>14600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2569,37 +2703,40 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E59" s="3">
         <v>20600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>500</v>
       </c>
       <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="L59" s="3">
+        <v>500</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2610,8 +2747,11 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2651,38 +2791,41 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E61" s="3">
         <v>455300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>237000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>211100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>299700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>232600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>222100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>246400</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2692,8 +2835,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,38 +3011,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>541900</v>
+      </c>
+      <c r="E66" s="3">
         <v>490600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>328400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>261700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>232400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>321000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>245100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>232700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>257600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,38 +3249,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E72" s="3">
         <v>77900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>28500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-24600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-25200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-32700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-35600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,38 +3425,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E76" s="3">
         <v>446500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>399000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>379700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>361600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>238700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>237300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>228600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>224600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E81" s="3">
         <v>55100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>25300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>9700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-35100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3442,8 +3641,8 @@
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -3457,20 +3656,23 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-137400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-35200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-19700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-54300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>8200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-13300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,37 +3952,38 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
         <v>-300</v>
       </c>
       <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3773,8 +3994,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>-300</v>
       </c>
       <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-91700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,26 +4146,27 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-6800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-6300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3800</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E100" s="3">
         <v>143800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>55600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>18700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>63000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-27800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>170100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E102" s="3">
         <v>6400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-41100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>79500</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>TRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,149 +665,156 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E8" s="3">
         <v>31800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>12200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E9" s="3">
         <v>6800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>8900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>4200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
-      </c>
-      <c r="K9" s="3">
-        <v>4200</v>
       </c>
       <c r="L9" s="3">
         <v>4200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
+      <c r="M9" s="3">
+        <v>4200</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
@@ -818,41 +825,44 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E10" s="3">
         <v>25000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>14700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>17600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>15100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>12700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>11000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>9600</v>
       </c>
       <c r="K10" s="3">
         <v>9600</v>
       </c>
       <c r="L10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="M10" s="3">
         <v>8000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
@@ -862,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,16 +985,19 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -989,20 +1009,20 @@
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-500</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>15600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1012,8 +1032,11 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E17" s="3">
         <v>16200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>13000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
+      <c r="O17" s="3">
+        <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E18" s="3">
         <v>15600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>10600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
+      <c r="O18" s="3">
+        <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,57 +1210,61 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-24600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>44500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>14600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>18100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-25100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-9100</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>3</v>
@@ -1238,35 +1275,38 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>25300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>12300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-35000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1309,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>55100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>24700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-35100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
+      <c r="O23" s="3">
+        <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1397,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>55100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-35100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
+      <c r="O26" s="3">
+        <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>55100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-35100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
+      <c r="O27" s="3">
+        <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1617,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E32" s="3">
         <v>24600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-44500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-14600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-18100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>25100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>55100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-35100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
+      <c r="O33" s="3">
+        <v>0</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>55100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-35100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
+      <c r="O35" s="3">
+        <v>0</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,41 +2052,42 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E41" s="3">
         <v>28700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>25300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>36000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2010,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,31 +2144,34 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E43" s="3">
         <v>6500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>3200</v>
       </c>
       <c r="K43" s="3">
         <v>3200</v>
@@ -2086,8 +2179,8 @@
       <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>3200</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2142,41 +2238,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2186,8 +2285,11 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2230,41 +2332,44 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1051100</v>
+      </c>
+      <c r="E47" s="3">
         <v>919300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>873500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>677200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>597700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>535700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>493700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>425500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>418800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>398600</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2274,31 +2379,34 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2500</v>
       </c>
       <c r="F48" s="3">
         <v>2500</v>
       </c>
       <c r="G48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H48" s="3">
         <v>2400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>300</v>
       </c>
       <c r="I48" s="3">
         <v>300</v>
       </c>
       <c r="J48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>500</v>
@@ -2306,8 +2414,8 @@
       <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>500</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2318,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,41 +2567,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>15300</v>
       </c>
       <c r="H52" s="3">
         <v>15300</v>
       </c>
       <c r="I52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="J52" s="3">
         <v>16400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2494,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,41 +2661,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1090200</v>
+      </c>
+      <c r="E54" s="3">
         <v>965900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>937100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>727400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>641400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>594000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>559700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>482400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>461300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>482200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,41 +2748,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E57" s="3">
         <v>15900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2662,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,40 +2840,43 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E59" s="3">
         <v>26900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>500</v>
       </c>
       <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>500</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -2750,8 +2887,11 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2794,41 +2934,44 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>585700</v>
+      </c>
+      <c r="E61" s="3">
         <v>499000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>455300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>237000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>211100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>299700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>232600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>222100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>246400</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2838,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2882,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,41 +3169,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>631800</v>
+      </c>
+      <c r="E66" s="3">
         <v>541900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>490600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>328400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>261700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>232400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>321000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>245100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>232700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>257600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3058,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,41 +3423,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E72" s="3">
         <v>53400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>77900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>28500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>10300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-24600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-25200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-32700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35600</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3296,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,41 +3611,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>458300</v>
+      </c>
+      <c r="E76" s="3">
         <v>424000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>446500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>399000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>379700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>361600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>238700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>237300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>228600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>224600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>55100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-35100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
+      <c r="O81" s="3">
+        <v>0</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3644,8 +3843,8 @@
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -3659,20 +3858,23 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-143300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-52400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-137400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-49400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-35200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-54300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-13300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,40 +4173,41 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-300</v>
       </c>
       <c r="H91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -3997,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>-300</v>
       </c>
       <c r="H94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-91700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,29 +4380,30 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-8800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-6800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-6300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3800</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -4191,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4566,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>127900</v>
+      </c>
+      <c r="E100" s="3">
         <v>34200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>143800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>55600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>18700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>63000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-27800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>170100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4660,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-18100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-41100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>79500</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>TRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,166 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E8" s="3">
         <v>33500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>31800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>21800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
+      <c r="P8" s="3">
+        <v>0</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E9" s="3">
         <v>7800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
-      </c>
-      <c r="L9" s="3">
-        <v>4200</v>
       </c>
       <c r="M9" s="3">
         <v>4200</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
+      <c r="N9" s="3">
+        <v>4200</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
@@ -828,44 +835,47 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E10" s="3">
         <v>25700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>17600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>15100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>12700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>11000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>9600</v>
       </c>
       <c r="L10" s="3">
         <v>9600</v>
       </c>
       <c r="M10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="N10" s="3">
         <v>8000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -999,8 +1019,8 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1012,20 +1032,20 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-500</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>15600</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E17" s="3">
         <v>17700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
+      <c r="P17" s="3">
+        <v>0</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E18" s="3">
         <v>15800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>10600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
+      <c r="P18" s="3">
+        <v>0</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,55 +1244,59 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-23500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-24600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>44500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>14600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>18100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-25100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>0</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1278,35 +1315,38 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>25300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-35000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,55 +1392,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>55100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>24700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>25300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-35100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
+      <c r="P23" s="3">
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>55100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>12300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-35100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
+      <c r="P26" s="3">
+        <v>0</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>55100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>25300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-35100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
+      <c r="P27" s="3">
+        <v>0</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E32" s="3">
         <v>23500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>24600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-44500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-14600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-18100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>25100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>0</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>55100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>25300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-35100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
+      <c r="P33" s="3">
+        <v>0</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>55100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>25300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-35100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
+      <c r="P35" s="3">
+        <v>0</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,44 +2139,45 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E41" s="3">
         <v>13200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>25300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>21800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,34 +2237,37 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E43" s="3">
         <v>8600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>3200</v>
       </c>
       <c r="L43" s="3">
         <v>3200</v>
@@ -2182,8 +2275,8 @@
       <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>3200</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2252,33 +2351,33 @@
       <c r="E45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,44 +2437,47 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1042200</v>
+      </c>
+      <c r="E47" s="3">
         <v>1051100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>919300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>873500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>677200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>597700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>535700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>493700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>425500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>418800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>398600</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2382,34 +2487,37 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2500</v>
       </c>
       <c r="G48" s="3">
         <v>2500</v>
       </c>
       <c r="H48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I48" s="3">
         <v>2400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>300</v>
       </c>
       <c r="J48" s="3">
         <v>300</v>
       </c>
       <c r="K48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>500</v>
@@ -2417,8 +2525,8 @@
       <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>500</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,44 +2687,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E52" s="3">
         <v>2800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>15300</v>
       </c>
       <c r="I52" s="3">
         <v>15300</v>
       </c>
       <c r="J52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K52" s="3">
         <v>16400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16900</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,44 +2787,47 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1096700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1090200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>965900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>937100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>727400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>641400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>594000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>559700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>482400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>461300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>482200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,44 +2879,45 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E57" s="3">
         <v>15700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>14600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,43 +2977,46 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E59" s="3">
         <v>30400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>26900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>20600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>16700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>500</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>500</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -2890,8 +3027,11 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,44 +3077,47 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>559700</v>
+      </c>
+      <c r="E61" s="3">
         <v>585700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>499000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>455300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>237000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>211100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>299700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>232600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>222100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>246400</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,44 +3327,47 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>614300</v>
+      </c>
+      <c r="E66" s="3">
         <v>631800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>541900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>490600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>328400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>261700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>232400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>321000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>245100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>232700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>257600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,44 +3597,47 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E72" s="3">
         <v>27800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>53400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>77900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>28500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>10300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-24600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-32700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35600</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,44 +3797,47 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>482500</v>
+      </c>
+      <c r="E76" s="3">
         <v>458300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>424000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>446500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>399000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>379700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>361600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>238700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>237300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>228600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>224600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>55100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>25300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-35100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
+      <c r="P81" s="3">
+        <v>0</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3846,8 +4045,8 @@
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -3861,20 +4060,23 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-143300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-52400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-137400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-49400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-35200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-54300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-13300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4185,32 +4406,32 @@
       <c r="E91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
       </c>
       <c r="I91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
       </c>
       <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-91700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,32 +4614,33 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-14800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-8800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-6800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-6300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3800</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E100" s="3">
         <v>127900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>34200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>143800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>55600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>18700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>63000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-27800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>170100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-18100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-16800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-41100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>79500</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>TRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,175 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E8" s="3">
         <v>38700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>31800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>21800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
+      <c r="Q8" s="3">
+        <v>0</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E9" s="3">
         <v>8400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
-      </c>
-      <c r="M9" s="3">
-        <v>4200</v>
       </c>
       <c r="N9" s="3">
         <v>4200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
+      <c r="O9" s="3">
+        <v>4200</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
@@ -838,47 +844,50 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E10" s="3">
         <v>30300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>25700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>25000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>14700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>17600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>15100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>12700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>9600</v>
       </c>
       <c r="M10" s="3">
         <v>9600</v>
       </c>
       <c r="N10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="O10" s="3">
         <v>8000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
@@ -888,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1022,8 +1041,8 @@
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1035,20 +1054,20 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-500</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>15600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1077,11 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E17" s="3">
         <v>20100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>22100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
+      <c r="Q17" s="3">
+        <v>0</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E18" s="3">
         <v>18600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>10600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
+      <c r="Q18" s="3">
+        <v>0</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,58 +1277,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-30600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-23500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>44500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>18100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-25100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>0</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1318,35 +1354,38 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>25300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-35000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1434,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>55100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>24700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-35100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
+      <c r="Q23" s="3">
+        <v>0</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1540,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>55100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>25300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>9700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>12300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-35100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
+      <c r="Q26" s="3">
+        <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>55100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>25300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-35100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
+      <c r="Q27" s="3">
+        <v>0</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1911,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E32" s="3">
         <v>30600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>23500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-44500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-18100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>25100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>55100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>25300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-35100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
+      <c r="Q33" s="3">
+        <v>0</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>55100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>25300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-35100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
+      <c r="Q35" s="3">
+        <v>0</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,47 +2225,48 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E41" s="3">
         <v>34100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>31700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>25300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>21800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>62600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,37 +2329,40 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E43" s="3">
         <v>8900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3500</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3200</v>
       </c>
       <c r="M43" s="3">
         <v>3200</v>
@@ -2278,8 +2370,8 @@
       <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>3200</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2290,8 +2382,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2435,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2354,33 +2452,33 @@
       <c r="F45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2390,8 +2488,11 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,47 +2541,50 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1094400</v>
+      </c>
+      <c r="E47" s="3">
         <v>1042200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1051100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>919300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>873500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>677200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>597700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>535700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>493700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>425500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>418800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>398600</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,37 +2594,40 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2500</v>
       </c>
       <c r="H48" s="3">
         <v>2500</v>
       </c>
       <c r="I48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J48" s="3">
         <v>2400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>300</v>
       </c>
       <c r="K48" s="3">
         <v>300</v>
       </c>
       <c r="L48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>500</v>
@@ -2528,8 +2635,8 @@
       <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>500</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2540,8 +2647,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,47 +2806,50 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E52" s="3">
         <v>3100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>15300</v>
       </c>
       <c r="J52" s="3">
         <v>15300</v>
       </c>
       <c r="K52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="L52" s="3">
         <v>16400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2740,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,47 +2912,50 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1126400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1096700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1090200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>965900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>937100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>727400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>641400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>594000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>559700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>482400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>461300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>482200</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2840,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,47 +3009,48 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E57" s="3">
         <v>18600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>15700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>14600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4800</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2930,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,46 +3113,49 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E59" s="3">
         <v>36000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>30400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>26900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>20600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>16700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>500</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
+      <c r="O59" s="3">
+        <v>500</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
@@ -3030,8 +3166,11 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,47 +3219,50 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>610600</v>
+      </c>
+      <c r="E61" s="3">
         <v>559700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>585700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>499000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>455300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>237000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>211100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>299700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>232600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>222100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>246400</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3272,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3325,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,47 +3484,50 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>666800</v>
+      </c>
+      <c r="E66" s="3">
         <v>614300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>631800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>541900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>490600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>328400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>261700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>232400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>321000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>245100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>232700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>257600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3380,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,47 +3770,50 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>27800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>53400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>77900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>28500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>10300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-24600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-25200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-32700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-35600</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,47 +3982,50 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>459600</v>
+      </c>
+      <c r="E76" s="3">
         <v>482500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>458300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>424000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>446500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>399000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>379700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>361600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>238700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>237300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>228600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>224600</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3850,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>55100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>25300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-35100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
+      <c r="Q81" s="3">
+        <v>0</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4048,8 +4246,8 @@
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4063,20 +4261,23 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="E89" s="3">
         <v>10700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-143300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-52400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-137400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-49400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-35200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-19700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-54300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>8200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-13300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,13 +4614,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -4409,32 +4629,32 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4445,8 +4665,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4771,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,49 +4783,52 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-91700</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,35 +4847,36 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-17200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-14800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-8800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-6800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-6300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -4665,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5057,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>27300</v>
+      </c>
+      <c r="E100" s="3">
         <v>10300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>127900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>34200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>143800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>55600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>18700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>10400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>63000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-27800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>170100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E102" s="3">
         <v>20900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-18100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-16800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-41100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>79500</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>TRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,93 +754,96 @@
         <v>41500</v>
       </c>
       <c r="E8" s="3">
+        <v>41500</v>
+      </c>
+      <c r="F8" s="3">
         <v>38700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>33500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>31800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>21800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12200</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
+      <c r="R8" s="3">
+        <v>0</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>13000</v>
+        <v>11100</v>
       </c>
       <c r="E9" s="3">
-        <v>8400</v>
+        <v>10300</v>
       </c>
       <c r="F9" s="3">
+        <v>9300</v>
+      </c>
+      <c r="G9" s="3">
         <v>7800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3900</v>
-      </c>
-      <c r="N9" s="3">
-        <v>4200</v>
       </c>
       <c r="O9" s="3">
         <v>4200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
+      <c r="P9" s="3">
+        <v>4200</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
@@ -847,50 +854,53 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>28500</v>
+        <v>30400</v>
       </c>
       <c r="E10" s="3">
-        <v>30300</v>
+        <v>31200</v>
       </c>
       <c r="F10" s="3">
+        <v>29400</v>
+      </c>
+      <c r="G10" s="3">
         <v>25700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>14700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>17600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>15100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>9600</v>
       </c>
       <c r="N10" s="3">
         <v>9600</v>
       </c>
       <c r="O10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="P10" s="3">
         <v>8000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1044,8 +1064,8 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1057,20 +1077,20 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-500</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>15600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E17" s="3">
         <v>19900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>22100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
+      <c r="R17" s="3">
+        <v>0</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E18" s="3">
         <v>21600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>18600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>10600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>11100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
+      <c r="R18" s="3">
+        <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,61 +1311,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-23200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-30600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-23500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-24600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>44500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-25100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="R20" s="3">
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1357,35 +1394,38 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>25300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>12300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-35000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,61 +1477,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>55100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>24700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-35100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
+      <c r="R23" s="3">
+        <v>0</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>55100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-35100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
+      <c r="R26" s="3">
+        <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>55100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-35100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
+      <c r="R27" s="3">
+        <v>0</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E32" s="3">
         <v>23200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>30600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>23500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>24600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-44500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>25100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="R32" s="3">
+        <v>0</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>55100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-35100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
+      <c r="R33" s="3">
+        <v>0</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>55100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-35100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
+      <c r="R35" s="3">
+        <v>0</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,50 +2312,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E41" s="3">
         <v>10600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>31700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>25300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>44700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>21800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>62600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,40 +2422,43 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E43" s="3">
         <v>10000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3200</v>
       </c>
       <c r="N43" s="3">
         <v>3200</v>
@@ -2373,8 +2466,8 @@
       <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+      <c r="P43" s="3">
+        <v>3200</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,8 +2534,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2455,33 +2554,33 @@
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2491,8 +2590,11 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2544,50 +2646,53 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1091500</v>
+      </c>
+      <c r="E47" s="3">
         <v>1094400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1042200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1051100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>919300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>873500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>677200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>597700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>535700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>493700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>425500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>418800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>398600</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2597,40 +2702,43 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>2500</v>
       </c>
       <c r="I48" s="3">
         <v>2500</v>
       </c>
       <c r="J48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>300</v>
       </c>
       <c r="L48" s="3">
         <v>300</v>
       </c>
       <c r="M48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>500</v>
@@ -2638,8 +2746,8 @@
       <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
+      <c r="P48" s="3">
+        <v>500</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
@@ -2650,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,50 +2926,53 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E52" s="3">
         <v>2900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>15300</v>
       </c>
       <c r="K52" s="3">
         <v>15300</v>
       </c>
       <c r="L52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="M52" s="3">
         <v>16400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,50 +3038,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1123300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1126400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1096700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1090200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>965900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>937100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>727400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>641400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>594000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>559700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>482400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>461300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>482200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,50 +3140,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E57" s="3">
         <v>19800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>15700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>14600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,49 +3250,52 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E59" s="3">
         <v>36400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>36000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>30400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>26900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>16700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>500</v>
       </c>
       <c r="O59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
+      <c r="P59" s="3">
+        <v>500</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
@@ -3169,8 +3306,11 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3222,50 +3362,53 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>607500</v>
+      </c>
+      <c r="E61" s="3">
         <v>610600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>559700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>585700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>499000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>455300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>237000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>211100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>299700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>232600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>222100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>246400</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3275,8 +3418,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,50 +3642,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>653600</v>
+      </c>
+      <c r="E66" s="3">
         <v>666800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>614300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>631800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>541900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>490600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>328400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>261700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>232400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>321000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>245100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>232700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>257600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,50 +3944,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>27800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>77900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>28500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>10300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-24600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-25200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-32700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35600</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,50 +4168,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>469700</v>
+      </c>
+      <c r="E76" s="3">
         <v>459600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>482500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>458300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>424000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>446500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>399000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>379700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>361600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>238700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>237300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>228600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>224600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>55100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-35100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
+      <c r="R81" s="3">
+        <v>0</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,34 +4421,35 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4264,20 +4463,23 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-50700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-143300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-52400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-137400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-49400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-35200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-19700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-54300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>8200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-13300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,49 +4835,50 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-300</v>
       </c>
       <c r="K94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-91700</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,38 +5081,39 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-20400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-17200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-14800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-8800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-6800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-6300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E100" s="3">
         <v>27300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>127900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>34200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>143800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>55600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>18700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>63000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-27800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>170100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>20900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-18100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-16800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-41100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>79500</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>TRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,188 +665,195 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>41500</v>
+        <v>46000</v>
       </c>
       <c r="E8" s="3">
         <v>41500</v>
       </c>
       <c r="F8" s="3">
+        <v>41500</v>
+      </c>
+      <c r="G8" s="3">
         <v>38700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>33500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>31800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>21800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>15300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12200</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
+      <c r="S8" s="3">
+        <v>0</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E9" s="3">
         <v>11100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>9300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>8900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3900</v>
-      </c>
-      <c r="O9" s="3">
-        <v>4200</v>
       </c>
       <c r="P9" s="3">
         <v>4200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
+      <c r="Q9" s="3">
+        <v>4200</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
@@ -857,53 +864,56 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E10" s="3">
         <v>30400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>31200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>29400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>25700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>14700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>17600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>11000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>9600</v>
       </c>
       <c r="O10" s="3">
         <v>9600</v>
       </c>
       <c r="P10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="Q10" s="3">
         <v>8000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1067,8 +1087,8 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1080,20 +1100,20 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-500</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>15600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E17" s="3">
         <v>22200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>13000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>10700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>22100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
+      <c r="S17" s="3">
+        <v>0</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E18" s="3">
         <v>19300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>10600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>11100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>7200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>5800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
+      <c r="S18" s="3">
+        <v>0</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,64 +1345,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>3200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-23200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-30600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-23500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-24600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>44500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>0</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1397,35 +1434,38 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3">
         <v>25300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>12300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-35000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,64 +1520,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E23" s="3">
         <v>22500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>55100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>25300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
+      <c r="S23" s="3">
+        <v>0</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1592,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E26" s="3">
         <v>22500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>55100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
+      <c r="S26" s="3">
+        <v>0</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E27" s="3">
         <v>22500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>55100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>25300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
+      <c r="S27" s="3">
+        <v>0</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>23200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>30600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>23500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>24600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-44500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>25100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>0</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E33" s="3">
         <v>22500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>55100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>25300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
+      <c r="S33" s="3">
+        <v>0</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E35" s="3">
         <v>22500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>55100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>25300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
+      <c r="S35" s="3">
+        <v>0</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,53 +2399,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E41" s="3">
         <v>8300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>10600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>31700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>36000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>44700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>21800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>62600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2369,8 +2456,11 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,43 +2515,46 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E43" s="3">
         <v>10500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>3200</v>
       </c>
       <c r="O43" s="3">
         <v>3200</v>
@@ -2469,8 +2562,8 @@
       <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
+      <c r="Q43" s="3">
+        <v>3200</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2557,33 +2656,33 @@
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,8 +2692,11 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2649,53 +2751,56 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1148000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1091500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1094400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1042200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1051100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>919300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>873500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>677200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>597700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>535700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>493700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>425500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>418800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>398600</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2705,43 +2810,46 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2500</v>
       </c>
       <c r="J48" s="3">
         <v>2500</v>
       </c>
       <c r="K48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L48" s="3">
         <v>2400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>300</v>
       </c>
       <c r="M48" s="3">
         <v>300</v>
       </c>
       <c r="N48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O48" s="3">
         <v>500</v>
@@ -2749,8 +2857,8 @@
       <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
+      <c r="Q48" s="3">
+        <v>500</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
@@ -2761,8 +2869,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,53 +3046,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>15300</v>
       </c>
       <c r="L52" s="3">
         <v>15300</v>
       </c>
       <c r="M52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="N52" s="3">
         <v>16400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16900</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2985,8 +3105,11 @@
       <c r="T52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,53 +3164,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1189100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1123300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1126400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1096700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1090200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>965900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>937100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>727400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>641400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>594000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>559700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>482400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>461300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>482200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3097,8 +3223,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,53 +3271,54 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E57" s="3">
         <v>14000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>19800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3328,11 @@
       <c r="T57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,52 +3387,55 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E59" s="3">
         <v>32200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>36400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>30400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>26900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>20600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>16700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
+      <c r="Q59" s="3">
+        <v>500</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
@@ -3309,8 +3446,11 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3365,53 +3505,56 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>656900</v>
+      </c>
+      <c r="E61" s="3">
         <v>607500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>610600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>559700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>585700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>499000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>455300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>237000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>211100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>299700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>232600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>222100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>246400</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3421,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,53 +3800,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>707100</v>
+      </c>
+      <c r="E66" s="3">
         <v>653600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>666800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>614300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>631800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>541900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>490600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>328400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>261700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>232400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>321000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>245100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>232700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>257600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3701,8 +3859,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,53 +4118,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-5200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>27800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>77900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>28500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-24600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-25200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-32700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4177,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,53 +4354,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>482000</v>
+      </c>
+      <c r="E76" s="3">
         <v>469700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>459600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>482500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>458300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>424000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>446500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>399000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>379700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>361600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>238700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>237300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>228600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>224600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4227,8 +4413,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E81" s="3">
         <v>22500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>55100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>25300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
+      <c r="S81" s="3">
+        <v>0</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4448,11 +4647,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4466,20 +4665,23 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E89" s="3">
         <v>20700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-50700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-143300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-52400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-137400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-49400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-35200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-19700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-54300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-13300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
+      <c r="S89" s="3">
+        <v>0</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,52 +5056,53 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-300</v>
       </c>
       <c r="L94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-91700</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,41 +5315,42 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-20700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-20400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-17200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-14800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-8800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-6800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-22700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>27300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>127900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>34200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>143800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>55600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>18700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>63000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>6000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-27800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>170100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>20900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-18100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-16800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-41100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>79500</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
+      <c r="S102" s="3">
+        <v>0</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TRIN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>TRIN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,198 +665,205 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E8" s="3">
         <v>46000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>41500</v>
       </c>
       <c r="F8" s="3">
         <v>41500</v>
       </c>
       <c r="G8" s="3">
+        <v>41500</v>
+      </c>
+      <c r="H8" s="3">
         <v>38700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>33500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>31800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>15300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
+      <c r="T8" s="3">
+        <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E9" s="3">
         <v>12000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>10300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>9300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>8900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3900</v>
-      </c>
-      <c r="P9" s="3">
-        <v>4200</v>
       </c>
       <c r="Q9" s="3">
         <v>4200</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
+      <c r="R9" s="3">
+        <v>4200</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
@@ -867,56 +874,59 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E10" s="3">
         <v>34000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>30400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>31200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>29400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>25700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>25000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>14700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>17600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>15100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>12700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>11000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>9600</v>
       </c>
       <c r="P10" s="3">
         <v>9600</v>
       </c>
       <c r="Q10" s="3">
+        <v>9600</v>
+      </c>
+      <c r="R10" s="3">
         <v>8000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1090,8 +1110,8 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1103,20 +1123,20 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-500</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>15600</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E17" s="3">
         <v>23900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>22100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
+      <c r="T17" s="3">
+        <v>0</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E18" s="3">
         <v>22100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>10600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>7200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>5600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
+      <c r="T18" s="3">
+        <v>0</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,67 +1379,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-23200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-30600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-23500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>44500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-25100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>0</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1437,35 +1474,38 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>25300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>12300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-35000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E23" s="3">
         <v>19900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-12000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>55100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>24700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>25300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-35100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
+      <c r="T23" s="3">
+        <v>0</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E26" s="3">
         <v>19900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>22500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>55100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-35100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
+      <c r="T26" s="3">
+        <v>0</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E27" s="3">
         <v>19900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>22500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-12000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>55100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-35100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
+      <c r="T27" s="3">
+        <v>0</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>23200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>30600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>23500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-44500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>25100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>0</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E33" s="3">
         <v>19900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>22500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-12000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>55100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>25300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-35100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
+      <c r="T33" s="3">
+        <v>0</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E35" s="3">
         <v>19900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>22500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-12000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>55100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>25300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-35100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
+      <c r="T35" s="3">
+        <v>0</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,56 +2486,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E41" s="3">
         <v>12300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>10600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>31700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>44700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>36300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>21800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>62600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,46 +2608,49 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E43" s="3">
         <v>12100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>8600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3500</v>
-      </c>
-      <c r="O43" s="3">
-        <v>3200</v>
       </c>
       <c r="P43" s="3">
         <v>3200</v>
@@ -2565,8 +2658,8 @@
       <c r="Q43" s="3">
         <v>3200</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>3</v>
+      <c r="R43" s="3">
+        <v>3200</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>3</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2659,33 +2758,33 @@
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,56 +2856,59 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1116600</v>
+      </c>
+      <c r="E47" s="3">
         <v>1148000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1091500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1094400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1042200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1051100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>919300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>873500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>677200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>597700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>535700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>493700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>425500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>418800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>398600</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2813,46 +2918,49 @@
       <c r="U47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2500</v>
       </c>
       <c r="K48" s="3">
         <v>2500</v>
       </c>
       <c r="L48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M48" s="3">
         <v>2400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>300</v>
       </c>
       <c r="N48" s="3">
         <v>300</v>
       </c>
       <c r="O48" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
@@ -2860,8 +2968,8 @@
       <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>3</v>
+      <c r="R48" s="3">
+        <v>500</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>3</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,56 +3166,59 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>15300</v>
       </c>
       <c r="M52" s="3">
         <v>15300</v>
       </c>
       <c r="N52" s="3">
+        <v>15300</v>
+      </c>
+      <c r="O52" s="3">
         <v>16400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16900</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,56 +3290,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1150900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1189100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1123300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1126400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1096700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1090200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>965900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>937100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>727400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>641400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>594000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>559700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>482400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>461300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>482200</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,56 +3402,57 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E57" s="3">
         <v>15800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>14000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>19800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>15700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>15900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>14600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,55 +3524,58 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E59" s="3">
         <v>34400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>36400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>36000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>30400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>26900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>20600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>16700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>16500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>500</v>
       </c>
       <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>3</v>
+      <c r="R59" s="3">
+        <v>500</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>3</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,56 +3648,59 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>525700</v>
+      </c>
+      <c r="E61" s="3">
         <v>656900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>607500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>610600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>559700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>585700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>499000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>455300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>237000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>211100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>299700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>232600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>222100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>246400</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,56 +3958,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>581500</v>
+      </c>
+      <c r="E66" s="3">
         <v>707100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>653600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>666800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>614300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>631800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>541900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>490600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>328400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>261700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>232400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>321000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>245100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>232700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>257600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,56 +4292,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-20900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>27800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>77900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-6700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-24600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-25200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-32700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35600</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,56 +4540,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>569500</v>
+      </c>
+      <c r="E76" s="3">
         <v>482000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>469700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>459600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>482500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>458300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>424000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>446500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>399000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>379700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>361600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>238700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>237300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>228600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>224600</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4416,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E81" s="3">
         <v>19900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>22500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-12000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>55100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>25300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-35100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
+      <c r="T81" s="3">
+        <v>0</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4650,11 +4849,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4668,20 +4867,23 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>55500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-36100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-50700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-143300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-52400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-137400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-49400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-35200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-19700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-54300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,55 +5277,56 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-300</v>
       </c>
       <c r="M94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-91700</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,44 +5549,45 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-16300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-20700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-20400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-17200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-14800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-8800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-8100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-6800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-6300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="E100" s="3">
         <v>41200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-22700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>27300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>127900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>34200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>143800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>55600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>18700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>63000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>6000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>170100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-23500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>20900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-18100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-16800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-41100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>79500</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
